--- a/binance.xlsx
+++ b/binance.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2112"/>
+  <dimension ref="A1:L2122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -84835,33 +84835,433 @@
         <v>27242.59</v>
       </c>
       <c r="C2112">
-        <v>27242.6</v>
+        <v>27333.29</v>
       </c>
       <c r="D2112">
-        <v>27092</v>
+        <v>26914.93</v>
       </c>
       <c r="E2112">
-        <v>27157.23</v>
+        <v>27069.22</v>
       </c>
       <c r="F2112">
-        <v>3484.86224</v>
+        <v>16595.34117</v>
       </c>
       <c r="G2112" s="2">
         <v>45080.99999998843</v>
       </c>
       <c r="H2112">
-        <v>94631411.1088151</v>
+        <v>450588672.4704081</v>
       </c>
       <c r="I2112">
-        <v>93619</v>
+        <v>466520</v>
       </c>
       <c r="J2112">
-        <v>1620.77703</v>
+        <v>7745.7868</v>
       </c>
       <c r="K2112">
-        <v>44013769.4299731</v>
+        <v>210327639.5610825</v>
       </c>
       <c r="L2112" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B2113">
+        <v>27069.22</v>
+      </c>
+      <c r="C2113">
+        <v>27455.02</v>
+      </c>
+      <c r="D2113">
+        <v>26951</v>
+      </c>
+      <c r="E2113">
+        <v>27115.21</v>
+      </c>
+      <c r="F2113">
+        <v>19258.41049</v>
+      </c>
+      <c r="G2113" s="2">
+        <v>45081.99999998843</v>
+      </c>
+      <c r="H2113">
+        <v>523747237.4389696</v>
+      </c>
+      <c r="I2113">
+        <v>504474</v>
+      </c>
+      <c r="J2113">
+        <v>9511.724319999999</v>
+      </c>
+      <c r="K2113">
+        <v>258699846.4758803</v>
+      </c>
+      <c r="L2113" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B2114">
+        <v>27115.2</v>
+      </c>
+      <c r="C2114">
+        <v>27129.33</v>
+      </c>
+      <c r="D2114">
+        <v>25388</v>
+      </c>
+      <c r="E2114">
+        <v>25728.2</v>
+      </c>
+      <c r="F2114">
+        <v>65805.60305000001</v>
+      </c>
+      <c r="G2114" s="2">
+        <v>45082.99999998843</v>
+      </c>
+      <c r="H2114">
+        <v>1722665798.09203</v>
+      </c>
+      <c r="I2114">
+        <v>1420829</v>
+      </c>
+      <c r="J2114">
+        <v>30583.35138</v>
+      </c>
+      <c r="K2114">
+        <v>799867474.2125897</v>
+      </c>
+      <c r="L2114" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B2115">
+        <v>25728.2</v>
+      </c>
+      <c r="C2115">
+        <v>27355.33</v>
+      </c>
+      <c r="D2115">
+        <v>25351.02</v>
+      </c>
+      <c r="E2115">
+        <v>27230.08</v>
+      </c>
+      <c r="F2115">
+        <v>68392.60438</v>
+      </c>
+      <c r="G2115" s="2">
+        <v>45083.99999998843</v>
+      </c>
+      <c r="H2115">
+        <v>1797636024.081213</v>
+      </c>
+      <c r="I2115">
+        <v>1345725</v>
+      </c>
+      <c r="J2115">
+        <v>35083.7879</v>
+      </c>
+      <c r="K2115">
+        <v>922716234.2100114</v>
+      </c>
+      <c r="L2115" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B2116">
+        <v>27230.07</v>
+      </c>
+      <c r="C2116">
+        <v>27391.77</v>
+      </c>
+      <c r="D2116">
+        <v>26125.01</v>
+      </c>
+      <c r="E2116">
+        <v>26339.34</v>
+      </c>
+      <c r="F2116">
+        <v>59619.44364</v>
+      </c>
+      <c r="G2116" s="2">
+        <v>45084.99999998843</v>
+      </c>
+      <c r="H2116">
+        <v>1589291467.537233</v>
+      </c>
+      <c r="I2116">
+        <v>1311928</v>
+      </c>
+      <c r="J2116">
+        <v>28095.50924</v>
+      </c>
+      <c r="K2116">
+        <v>749083400.1203892</v>
+      </c>
+      <c r="L2116" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B2117">
+        <v>26339.34</v>
+      </c>
+      <c r="C2117">
+        <v>26810</v>
+      </c>
+      <c r="D2117">
+        <v>26210</v>
+      </c>
+      <c r="E2117">
+        <v>26498.61</v>
+      </c>
+      <c r="F2117">
+        <v>31075.51083</v>
+      </c>
+      <c r="G2117" s="2">
+        <v>45085.99999998843</v>
+      </c>
+      <c r="H2117">
+        <v>823023638.2368751</v>
+      </c>
+      <c r="I2117">
+        <v>848252</v>
+      </c>
+      <c r="J2117">
+        <v>14614.60741</v>
+      </c>
+      <c r="K2117">
+        <v>387105933.4399799</v>
+      </c>
+      <c r="L2117" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B2118">
+        <v>26498.62</v>
+      </c>
+      <c r="C2118">
+        <v>26783.33</v>
+      </c>
+      <c r="D2118">
+        <v>26269.91</v>
+      </c>
+      <c r="E2118">
+        <v>26477.81</v>
+      </c>
+      <c r="F2118">
+        <v>27934.7097</v>
+      </c>
+      <c r="G2118" s="2">
+        <v>45086.99999998843</v>
+      </c>
+      <c r="H2118">
+        <v>741158215.0539023</v>
+      </c>
+      <c r="I2118">
+        <v>746911</v>
+      </c>
+      <c r="J2118">
+        <v>12757.07361</v>
+      </c>
+      <c r="K2118">
+        <v>338454644.8956143</v>
+      </c>
+      <c r="L2118" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B2119">
+        <v>26477.8</v>
+      </c>
+      <c r="C2119">
+        <v>26533.87</v>
+      </c>
+      <c r="D2119">
+        <v>25358</v>
+      </c>
+      <c r="E2119">
+        <v>25841.21</v>
+      </c>
+      <c r="F2119">
+        <v>64944.60108</v>
+      </c>
+      <c r="G2119" s="2">
+        <v>45087.99999998843</v>
+      </c>
+      <c r="H2119">
+        <v>1673795235.400892</v>
+      </c>
+      <c r="I2119">
+        <v>1713871</v>
+      </c>
+      <c r="J2119">
+        <v>31558.13098</v>
+      </c>
+      <c r="K2119">
+        <v>813190388.2485608</v>
+      </c>
+      <c r="L2119" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B2120">
+        <v>25841.22</v>
+      </c>
+      <c r="C2120">
+        <v>26206.88</v>
+      </c>
+      <c r="D2120">
+        <v>25634.7</v>
+      </c>
+      <c r="E2120">
+        <v>25925.55</v>
+      </c>
+      <c r="F2120">
+        <v>30014.29595</v>
+      </c>
+      <c r="G2120" s="2">
+        <v>45088.99999998843</v>
+      </c>
+      <c r="H2120">
+        <v>776111471.8669971</v>
+      </c>
+      <c r="I2120">
+        <v>833902</v>
+      </c>
+      <c r="J2120">
+        <v>14266.10759</v>
+      </c>
+      <c r="K2120">
+        <v>368954010.8074442</v>
+      </c>
+      <c r="L2120" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B2121">
+        <v>25925.54</v>
+      </c>
+      <c r="C2121">
+        <v>26106.48</v>
+      </c>
+      <c r="D2121">
+        <v>25602.11</v>
+      </c>
+      <c r="E2121">
+        <v>25905.19</v>
+      </c>
+      <c r="F2121">
+        <v>29900.50893</v>
+      </c>
+      <c r="G2121" s="2">
+        <v>45089.99999998843</v>
+      </c>
+      <c r="H2121">
+        <v>773303698.8633221</v>
+      </c>
+      <c r="I2121">
+        <v>858037</v>
+      </c>
+      <c r="J2121">
+        <v>14219.97114</v>
+      </c>
+      <c r="K2121">
+        <v>367770742.66004</v>
+      </c>
+      <c r="L2121" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B2122">
+        <v>25905.2</v>
+      </c>
+      <c r="C2122">
+        <v>26272.25</v>
+      </c>
+      <c r="D2122">
+        <v>25818.07</v>
+      </c>
+      <c r="E2122">
+        <v>26127.33</v>
+      </c>
+      <c r="F2122">
+        <v>14331.19134</v>
+      </c>
+      <c r="G2122" s="2">
+        <v>45090.99999998843</v>
+      </c>
+      <c r="H2122">
+        <v>373587001.2084901</v>
+      </c>
+      <c r="I2122">
+        <v>381250</v>
+      </c>
+      <c r="J2122">
+        <v>7024.46728</v>
+      </c>
+      <c r="K2122">
+        <v>183123731.2660314</v>
+      </c>
+      <c r="L2122" t="inlineStr">
         <is>
           <t>BTCUSDT</t>
         </is>
